--- a/data/landings/cdfw/public/fish_bulletins/raw/fb63/raw/Tables5-18.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb63/raw/Tables5-18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb63/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978D4A82-D706-8A4E-96BE-48B35841C2D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4384B84D-0D82-184A-9813-F9911EC81E63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21980" yWindow="460" windowWidth="27460" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F647"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C328" sqref="C328"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="E171" sqref="D171:E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3962,7 +3962,7 @@
         <v>16</v>
       </c>
       <c r="E177" s="1">
-        <v>14</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="E179" s="5">
         <f>SUM(E175:E177)-E178</f>
-        <v>-1386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
